--- a/output/fit_clients/fit_round_348.xlsx
+++ b/output/fit_clients/fit_round_348.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2448616832.621659</v>
+        <v>1553000415.043916</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07375383282296624</v>
+        <v>0.09196045336296299</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02810455932815767</v>
+        <v>0.0299680294590337</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1224308472.286103</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2503144450.466271</v>
+        <v>2021094135.423996</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1828814863563417</v>
+        <v>0.1464439734051561</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03761370010418274</v>
+        <v>0.03667786316001582</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1251572343.216791</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5247633610.164135</v>
+        <v>4175275034.26971</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1074365835703886</v>
+        <v>0.1054812504429344</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02788062722018924</v>
+        <v>0.03560313850585614</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>126</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2623816907.666193</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4146044125.734324</v>
+        <v>3186497457.252075</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07048655613332976</v>
+        <v>0.08708151942082079</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03574495470955786</v>
+        <v>0.04438726046987031</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>131</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2073022056.937765</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2147641269.478178</v>
+        <v>2103359732.67318</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1417754487447038</v>
+        <v>0.1065662078072938</v>
       </c>
       <c r="G6" t="n">
-        <v>0.055778493201032</v>
+        <v>0.03644138288160161</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>65</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1073820648.364931</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3017262319.505423</v>
+        <v>2920909725.298008</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09011819416778098</v>
+        <v>0.09609388536985618</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0311172626867227</v>
+        <v>0.04839579740921354</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>109</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1508631122.964399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3967510478.055671</v>
+        <v>3902531139.556015</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1690893762170716</v>
+        <v>0.1591794900995868</v>
       </c>
       <c r="G8" t="n">
-        <v>0.033416001541673</v>
+        <v>0.0334810369559275</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>111</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1983755395.457493</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1780001999.37245</v>
+        <v>2113701527.976103</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1965581068180999</v>
+        <v>0.1691511122654543</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02746015924425954</v>
+        <v>0.02494296074999258</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>890001056.8230803</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4779226055.119672</v>
+        <v>3950185059.465594</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2096335594591925</v>
+        <v>0.157946449076277</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0538978060090976</v>
+        <v>0.04363584236751944</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>147</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2389613109.77231</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3575156261.620917</v>
+        <v>3647871936.228077</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1660701354282081</v>
+        <v>0.1668250125988042</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03299761500999151</v>
+        <v>0.04635139407494548</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>144</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1787578113.872658</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2563737351.886994</v>
+        <v>2650808741.966767</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1382019237572024</v>
+        <v>0.1242423443088057</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04536963911158534</v>
+        <v>0.05387170394497483</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>119</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1281868653.999437</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5305026709.676305</v>
+        <v>4434384779.613914</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0713864996777076</v>
+        <v>0.08900108601450046</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02521712740624111</v>
+        <v>0.02892664201533031</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>117</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2652513343.486456</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2398045988.592781</v>
+        <v>3849855165.700337</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1725058587953568</v>
+        <v>0.1359295963667881</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03788487008957363</v>
+        <v>0.03017782624412475</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>111</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1199023072.335782</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1505993166.638452</v>
+        <v>1125387309.809462</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09175982368420987</v>
+        <v>0.08121943045563849</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0352929520018419</v>
+        <v>0.03035748459404996</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>752996670.1879641</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2879351830.067992</v>
+        <v>2357219418.595961</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09040793187757638</v>
+        <v>0.07351388960106463</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03231460898784282</v>
+        <v>0.03931663039839686</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>69</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1439675911.971236</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3467360914.213775</v>
+        <v>5039105365.372139</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1353644117997831</v>
+        <v>0.1324420893834856</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05151166800818806</v>
+        <v>0.0390364187807278</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>103</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1733680518.032222</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3088374056.217059</v>
+        <v>3042264233.210691</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1369367846884099</v>
+        <v>0.116470227723601</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0266697638317743</v>
+        <v>0.02927564139647472</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>114</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1544187051.95497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1170530143.820155</v>
+        <v>992813422.1727121</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1375650978610439</v>
+        <v>0.1806567990674695</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02676395815429953</v>
+        <v>0.01672644733272304</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>585265142.6662796</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2286662780.362519</v>
+        <v>2662490446.90531</v>
       </c>
       <c r="F20" t="n">
-        <v>0.144250660081347</v>
+        <v>0.1284600671286422</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02025262057605883</v>
+        <v>0.02050595678131225</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>45</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1143331386.011704</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2137036270.32594</v>
+        <v>2705098938.500671</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06998313184207412</v>
+        <v>0.06352784248916953</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03846944229590564</v>
+        <v>0.03352401985176416</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1068518157.992188</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3511447214.579931</v>
+        <v>3725343519.210664</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1192445382031484</v>
+        <v>0.12909945887995</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05673978190067317</v>
+        <v>0.05434281837595774</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>97</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1755723638.205815</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1168735531.483888</v>
+        <v>1029899277.71428</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1686611530485974</v>
+        <v>0.1239087504764454</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04721515379546522</v>
+        <v>0.03390506176965551</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>584367807.4925188</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3486300642.102546</v>
+        <v>3628891078.062925</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09397423917596827</v>
+        <v>0.1388464786574831</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02309437864669314</v>
+        <v>0.02866606738957417</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>101</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1743150323.600173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1326798196.347832</v>
+        <v>1242931057.462306</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09634887577553324</v>
+        <v>0.0772302565550505</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02434354566894077</v>
+        <v>0.0263656652163108</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>663399086.9829775</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1408648738.043572</v>
+        <v>1225365269.899668</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09837526336813976</v>
+        <v>0.1070330460469023</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02518233711689631</v>
+        <v>0.03168417518950879</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>704324441.1007752</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3364941284.555757</v>
+        <v>4607740683.010668</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1203261180387123</v>
+        <v>0.1088173014922783</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02020487536477111</v>
+        <v>0.01775827701493855</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1682470684.00947</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3600927046.931945</v>
+        <v>2393783613.184201</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1258085878022438</v>
+        <v>0.1058619376742936</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03328201007834529</v>
+        <v>0.04891883945923449</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>115</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1800463586.847785</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4800557322.482549</v>
+        <v>5778151131.90122</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1182279621611807</v>
+        <v>0.1017408954835886</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03803238789640948</v>
+        <v>0.03051918084351038</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>154</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2400278622.676716</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1858850005.605744</v>
+        <v>1908631160.376151</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1273153464970788</v>
+        <v>0.1365768378238493</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02892981113288891</v>
+        <v>0.03174006456367646</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>929425024.2277414</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1045593512.147716</v>
+        <v>967894993.4978032</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1094983634499744</v>
+        <v>0.07670234600626884</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0484061540621355</v>
+        <v>0.04130512670770303</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>522796743.8976336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1208322001.579517</v>
+        <v>1770339707.920899</v>
       </c>
       <c r="F32" t="n">
-        <v>0.118863084961202</v>
+        <v>0.1174031270417493</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02816715904854442</v>
+        <v>0.03749767007493067</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>604161008.7345818</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2029072557.920985</v>
+        <v>3097766901.61799</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1458587582492061</v>
+        <v>0.1581989373292402</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0557256455963104</v>
+        <v>0.05028963082285718</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>106</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1014536357.272975</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1141108034.402305</v>
+        <v>1280923250.646291</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1114781256696243</v>
+        <v>0.07607798755908493</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01970591227640078</v>
+        <v>0.0210670630169616</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>570554031.9232271</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>825824718.3720591</v>
+        <v>855363485.4002768</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1150495593774368</v>
+        <v>0.08790547666844595</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04336675292129013</v>
+        <v>0.02901744013862197</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>412912415.9788307</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2446688379.681478</v>
+        <v>2111240986.854228</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1501496804164582</v>
+        <v>0.1168109545155477</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02897438699662689</v>
+        <v>0.02330417699071091</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>88</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1223344216.108351</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2323198902.102686</v>
+        <v>2535282887.980305</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06792770304742089</v>
+        <v>0.07176564758143943</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03151527435675059</v>
+        <v>0.03402138294502156</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>91</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1161599522.792502</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1409019957.37402</v>
+        <v>2038497558.695744</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1055543356545994</v>
+        <v>0.1174488083893593</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02662163051368923</v>
+        <v>0.0257896957614637</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>704510040.8000295</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2139498812.543686</v>
+        <v>1529679272.759184</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1418043355128063</v>
+        <v>0.1371279898717103</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02277426013773105</v>
+        <v>0.02414770405008589</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1069749379.670074</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1235728511.844125</v>
+        <v>1306062469.888587</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1524598045038428</v>
+        <v>0.1402301777266545</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03851841392788019</v>
+        <v>0.05582298563729134</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>617864288.2637557</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2140554213.47006</v>
+        <v>1954761816.100054</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1337585380646325</v>
+        <v>0.1438146811326368</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03754977408612574</v>
+        <v>0.03063427324970617</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>88</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1070277167.209827</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3432828681.148486</v>
+        <v>2953791324.531649</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1096944818680756</v>
+        <v>0.0979437040326506</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03805244998834809</v>
+        <v>0.03498496236579</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>116</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1716414330.840222</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2546819574.852414</v>
+        <v>2639348390.667066</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1266383467583951</v>
+        <v>0.145971327737522</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01902856499986395</v>
+        <v>0.01821252061898559</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>125</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1273409831.401227</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1508962905.45379</v>
+        <v>1533781607.01614</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06546504992556443</v>
+        <v>0.0763486617665152</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02955267562218978</v>
+        <v>0.03070428634394539</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>754481461.1110492</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2259162211.143661</v>
+        <v>2285521352.315992</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1645167634463781</v>
+        <v>0.1173650533469027</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03586376527857327</v>
+        <v>0.03942661620302272</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1129581122.542948</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4457519195.056502</v>
+        <v>4555843533.786427</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1690100768309031</v>
+        <v>0.150468697806113</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04779128440418154</v>
+        <v>0.04306491704928161</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>124</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2228759593.275421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3834926837.125555</v>
+        <v>5090717123.079501</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1547913769255268</v>
+        <v>0.1523688618023961</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0427382627464996</v>
+        <v>0.05618523184595207</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>94</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1917463408.39043</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3760913790.447779</v>
+        <v>3713822981.879204</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07965009997474125</v>
+        <v>0.09376972745467374</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03475218799917364</v>
+        <v>0.03859781004044951</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>113</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1880456943.525557</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1378211651.63361</v>
+        <v>1355005085.402485</v>
       </c>
       <c r="F49" t="n">
-        <v>0.123237658073227</v>
+        <v>0.1564019011968979</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03536730107474056</v>
+        <v>0.0383484826178315</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>689105876.7819527</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3857596977.586868</v>
+        <v>3666710639.659847</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1239291616244447</v>
+        <v>0.1770735242083586</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04629173768632879</v>
+        <v>0.04611497912915987</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>119</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1928798487.621239</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1066080104.855163</v>
+        <v>1102510922.545267</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1779392489682134</v>
+        <v>0.1299233003669614</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04542594703966164</v>
+        <v>0.04490714649321202</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>533040125.6821755</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5232025609.201318</v>
+        <v>4687681046.631659</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09647119418274293</v>
+        <v>0.1279676444131607</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05370712525147166</v>
+        <v>0.05848362365975807</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>144</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2616012788.576136</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3614151121.475252</v>
+        <v>2370674975.144403</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1272958708747338</v>
+        <v>0.1354791828557213</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02591198226206842</v>
+        <v>0.03355144737562037</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>99</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1807075550.738221</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4468582765.882039</v>
+        <v>4524247690.919165</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1235846943861181</v>
+        <v>0.164566996027493</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04009959819529561</v>
+        <v>0.04599419032498016</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>113</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2234291483.833383</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4215552602.724975</v>
+        <v>3776372410.010503</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1671632283026647</v>
+        <v>0.1913573402348977</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02878240231132229</v>
+        <v>0.02217042693739239</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2107776285.780017</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1755950179.831588</v>
+        <v>1870626096.635966</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1362436835639025</v>
+        <v>0.1167058952312249</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04388797940389606</v>
+        <v>0.03855334295817305</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>877975094.2542567</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3407739263.51163</v>
+        <v>4573482571.309476</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1675863133525625</v>
+        <v>0.1687767920832541</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01921407111857258</v>
+        <v>0.01836919205394489</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>111</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1703869670.404365</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1699421255.075877</v>
+        <v>1611490307.376268</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1751034025313761</v>
+        <v>0.1770476277342914</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02729499013578951</v>
+        <v>0.02908874971799514</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>849710640.4792413</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3875804530.494523</v>
+        <v>3912267134.332779</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1264962565908662</v>
+        <v>0.09462164743732995</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0420585265930048</v>
+        <v>0.04823298248078206</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>96</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1937902247.191742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3580970218.604079</v>
+        <v>3560574701.193767</v>
       </c>
       <c r="F60" t="n">
-        <v>0.136956334380638</v>
+        <v>0.1523193002414954</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02981048674350389</v>
+        <v>0.02290043153515223</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>109</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1790485240.604475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3099988131.344287</v>
+        <v>3000060320.428235</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1250711256707686</v>
+        <v>0.1508824669041527</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02698405596714987</v>
+        <v>0.02341342037129614</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>120</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1549994036.719681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1371234659.336936</v>
+        <v>1330326724.202775</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1220780150649304</v>
+        <v>0.1515584846412925</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03741084131998825</v>
+        <v>0.0309043243541925</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>685617293.4253801</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4502440593.751681</v>
+        <v>5362444503.326581</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09920998274276334</v>
+        <v>0.06838521729134228</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03605538212618698</v>
+        <v>0.03449216451735412</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>100</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2251220336.837878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4011246047.942871</v>
+        <v>4332553622.681721</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1917880243067569</v>
+        <v>0.1192289667398173</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03467873120837348</v>
+        <v>0.02744226905170287</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>109</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2005623060.634552</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5387983925.146305</v>
+        <v>5662880871.235642</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1612370718409549</v>
+        <v>0.1638897154508967</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02461491476057998</v>
+        <v>0.02867531450732303</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>125</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2693991898.326379</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4573218786.191606</v>
+        <v>4804539324.821102</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1398106449604654</v>
+        <v>0.1025445734035216</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03112183577205735</v>
+        <v>0.05032743799388247</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>102</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2286609397.381453</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2271116790.156005</v>
+        <v>3081637182.2462</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0974258021906222</v>
+        <v>0.09408064115314521</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04334997132303044</v>
+        <v>0.04179016026866458</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>112</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1135558475.029684</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3682835945.523263</v>
+        <v>3925237796.399189</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1198984320804755</v>
+        <v>0.1031894608711858</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0478264884574706</v>
+        <v>0.04891895399319839</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>114</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1841417949.331357</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2001002270.555773</v>
+        <v>1849817682.645317</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1678209648368633</v>
+        <v>0.1120404010796542</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05725221159713059</v>
+        <v>0.0480957183054311</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1000501140.350024</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3290100606.743857</v>
+        <v>2279244358.669969</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07719069718359126</v>
+        <v>0.08255404108060747</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03066888151876057</v>
+        <v>0.03194179459076926</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>99</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1645050299.228896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3638384293.047385</v>
+        <v>4583431656.606318</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1369791815733835</v>
+        <v>0.1175538727082464</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02748093776585113</v>
+        <v>0.02952173567899214</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>127</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1819192150.589242</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1797363775.366896</v>
+        <v>2074413076.017433</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0990573980088669</v>
+        <v>0.1031769440911709</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03666083409137842</v>
+        <v>0.05210200038183879</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>898681866.7147385</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2437316548.926738</v>
+        <v>3193291784.328635</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1102378573243436</v>
+        <v>0.08489494032563388</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0456428099941648</v>
+        <v>0.05109089407640919</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>133</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1218658321.964057</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2513653311.406456</v>
+        <v>3323078515.242889</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1182920521894902</v>
+        <v>0.1677164439607159</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03417975371747799</v>
+        <v>0.03530335383849117</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>119</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1256826763.122904</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1814406530.216176</v>
+        <v>1877124705.380871</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1122830212967225</v>
+        <v>0.1266477518888975</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03258575017503129</v>
+        <v>0.03381515374091518</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>907203246.700521</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4344540838.179146</v>
+        <v>3754818612.935869</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1144771486525193</v>
+        <v>0.1077942382405188</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02971372859505785</v>
+        <v>0.0227074793458053</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2172270418.233842</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2149552601.70961</v>
+        <v>2305079954.812943</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1445016977852744</v>
+        <v>0.1668118565324999</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02857974630042382</v>
+        <v>0.02370885414081319</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1074776384.506722</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3855752631.820987</v>
+        <v>2938725456.074667</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1084679195224497</v>
+        <v>0.1072663809099123</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04075377964071934</v>
+        <v>0.05543000032609741</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>121</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1927876291.983669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1265543407.054889</v>
+        <v>1301301687.563733</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1403200138343864</v>
+        <v>0.1483781572308326</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02799230911937813</v>
+        <v>0.02958958223339465</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>632771696.7414197</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3704319298.854527</v>
+        <v>5488074392.693985</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07623207686831712</v>
+        <v>0.07172612503386855</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02652845830477832</v>
+        <v>0.028195187844806</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>73</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1852159634.213265</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3491140107.542639</v>
+        <v>3503260346.516851</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09916624716845476</v>
+        <v>0.1212112089816584</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02993541560890411</v>
+        <v>0.01999184628318238</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1745569998.097036</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4001506115.921676</v>
+        <v>3461803501.221314</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2019347590162075</v>
+        <v>0.1392376399685993</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0274960583627318</v>
+        <v>0.02894768231675488</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>122</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2000753097.649486</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2022474462.841197</v>
+        <v>2007837065.022064</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1108661376234789</v>
+        <v>0.1355140001609118</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03296364003835354</v>
+        <v>0.03165541941680543</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1011237219.538865</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2413269278.929737</v>
+        <v>2503420153.37525</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1057629971222128</v>
+        <v>0.08928033794696624</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05079271391650095</v>
+        <v>0.04145679688040491</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1206634583.963682</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3389187742.007028</v>
+        <v>2352989611.145043</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1597449982434566</v>
+        <v>0.1673302951835705</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0467368066861354</v>
+        <v>0.05666005409142037</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>131</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1694593974.153616</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1983525709.890536</v>
+        <v>1918176430.666459</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1669710095605892</v>
+        <v>0.1690962496643811</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0265672722838244</v>
+        <v>0.02279755410315583</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>45</v>
-      </c>
-      <c r="J86" t="n">
-        <v>991762880.2863369</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1438707120.672568</v>
+        <v>1302345022.657616</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1868682685321888</v>
+        <v>0.1170684775408431</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03954251441852871</v>
+        <v>0.04140958397674858</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>719353677.1032995</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3522848620.912534</v>
+        <v>3290610522.176219</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1636845820407104</v>
+        <v>0.1086662252217</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02574086423397294</v>
+        <v>0.02900148092300848</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>138</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1761424392.594962</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3441560846.884111</v>
+        <v>3422066706.86548</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1390015762895111</v>
+        <v>0.1404257965495334</v>
       </c>
       <c r="G89" t="n">
-        <v>0.032562392718814</v>
+        <v>0.03707808246803911</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>118</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1720780429.193423</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2056968122.100482</v>
+        <v>1600714408.205568</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09641198739380787</v>
+        <v>0.08653573192802259</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04151913845883174</v>
+        <v>0.03936705095261753</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1028484141.702998</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1349342918.895303</v>
+        <v>1687190521.826094</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1866846503940114</v>
+        <v>0.1431904037584312</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0420193087868232</v>
+        <v>0.05780967066525628</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>674671518.4764147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1848863730.945246</v>
+        <v>2530601313.777056</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07173116472639025</v>
+        <v>0.08494057361045533</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03548546333479841</v>
+        <v>0.03664423891211735</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>94</v>
-      </c>
-      <c r="J92" t="n">
-        <v>924431800.28151</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3220197697.270497</v>
+        <v>4971587244.902519</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1378797012212891</v>
+        <v>0.110608590709738</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05404841638819186</v>
+        <v>0.03367806014839334</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1610098899.667261</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2206725628.768544</v>
+        <v>2057054856.644843</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1312906356836628</v>
+        <v>0.1334362982755321</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03447159242388353</v>
+        <v>0.03255134005705073</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1103362839.661465</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2947605949.12087</v>
+        <v>3282405612.444398</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09101277676513213</v>
+        <v>0.1367118951927192</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03320300038361461</v>
+        <v>0.03619963894597955</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>84</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1473802978.115213</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2297934443.15775</v>
+        <v>2030675968.480398</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1021289942299192</v>
+        <v>0.1116107924248071</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03658793427541884</v>
+        <v>0.0308423216761963</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1148967176.777375</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5154974828.043184</v>
+        <v>4012189117.104515</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1437881568269173</v>
+        <v>0.1277459257794553</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0281710720020278</v>
+        <v>0.02378144720557528</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>111</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2577487563.290138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2918383968.64925</v>
+        <v>3031508306.045952</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1252543027974944</v>
+        <v>0.08369767434494882</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02648943342432101</v>
+        <v>0.0217302454755173</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>94</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1459191963.524316</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3109231710.803735</v>
+        <v>2225286588.497089</v>
       </c>
       <c r="F99" t="n">
-        <v>0.113362646388737</v>
+        <v>0.146103825419316</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03006795680751164</v>
+        <v>0.03557042929814055</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>109</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1554615849.260072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3224471581.645091</v>
+        <v>4429498057.736613</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1451132933182832</v>
+        <v>0.1458591149664652</v>
       </c>
       <c r="G100" t="n">
-        <v>0.018629689993196</v>
+        <v>0.02784800404275287</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>107</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1612235799.577077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3051283310.426679</v>
+        <v>3195546768.259741</v>
       </c>
       <c r="F101" t="n">
-        <v>0.211483870540513</v>
+        <v>0.1637819230273831</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04493958711205697</v>
+        <v>0.03602070561706659</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>141</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1525641751.060915</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_348.xlsx
+++ b/output/fit_clients/fit_round_348.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1553000415.043916</v>
+        <v>2483964462.740857</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09196045336296299</v>
+        <v>0.07965754207124243</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0299680294590337</v>
+        <v>0.0275740321823621</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2021094135.423996</v>
+        <v>1842309563.317337</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1464439734051561</v>
+        <v>0.1820989203659465</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03667786316001582</v>
+        <v>0.04129765513748235</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4175275034.26971</v>
+        <v>3505536803.229918</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1054812504429344</v>
+        <v>0.1140348703031834</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03560313850585614</v>
+        <v>0.0338101982829515</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3186497457.252075</v>
+        <v>2935523805.336401</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08708151942082079</v>
+        <v>0.1064326132351403</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04438726046987031</v>
+        <v>0.03349134364426198</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2103359732.67318</v>
+        <v>2019025462.757602</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1065662078072938</v>
+        <v>0.1084082514708624</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03644138288160161</v>
+        <v>0.04153040765249925</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2920909725.298008</v>
+        <v>3013229036.666783</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09609388536985618</v>
+        <v>0.06175885171907722</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04839579740921354</v>
+        <v>0.0406676222934232</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3902531139.556015</v>
+        <v>3263227389.546995</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1591794900995868</v>
+        <v>0.1906356931184787</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0334810369559275</v>
+        <v>0.0282471805574004</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2113701527.976103</v>
+        <v>1502465002.061827</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1691511122654543</v>
+        <v>0.1650438279341124</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02494296074999258</v>
+        <v>0.02328578188670432</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3950185059.465594</v>
+        <v>4853480481.488018</v>
       </c>
       <c r="F10" t="n">
-        <v>0.157946449076277</v>
+        <v>0.167030583957508</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04363584236751944</v>
+        <v>0.03290937506430659</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3647871936.228077</v>
+        <v>3755288933.095987</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1668250125988042</v>
+        <v>0.1706995212732666</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04635139407494548</v>
+        <v>0.03485195286562105</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2650808741.966767</v>
+        <v>2196578491.196472</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1242423443088057</v>
+        <v>0.1419237762215172</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05387170394497483</v>
+        <v>0.04197344653418592</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4434384779.613914</v>
+        <v>4551523591.78897</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08900108601450046</v>
+        <v>0.08798690377997861</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02892664201533031</v>
+        <v>0.02578071713437127</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3849855165.700337</v>
+        <v>2755681626.646437</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1359295963667881</v>
+        <v>0.1224056381217227</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03017782624412475</v>
+        <v>0.0271087955114048</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1125387309.809462</v>
+        <v>1608036149.23986</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08121943045563849</v>
+        <v>0.1090566210624759</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03035748459404996</v>
+        <v>0.03082682929518358</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,16 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2357219418.595961</v>
+        <v>2610154078.037531</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07351388960106463</v>
+        <v>0.1064137732458372</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03931663039839686</v>
+        <v>0.03312137034373008</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5039105365.372139</v>
+        <v>5033783510.081671</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1324420893834856</v>
+        <v>0.1336283291017542</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0390364187807278</v>
+        <v>0.05250017794726851</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3042264233.210691</v>
+        <v>4020330123.399908</v>
       </c>
       <c r="F18" t="n">
-        <v>0.116470227723601</v>
+        <v>0.1746250578027616</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02927564139647472</v>
+        <v>0.02283730341014062</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>992813422.1727121</v>
+        <v>994938488.108144</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1806567990674695</v>
+        <v>0.1179025490410575</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01672644733272304</v>
+        <v>0.02263673354400151</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2662490446.90531</v>
+        <v>2603907965.79508</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1284600671286422</v>
+        <v>0.1459088228032128</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02050595678131225</v>
+        <v>0.02576508227542045</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2705098938.500671</v>
+        <v>2408956371.347894</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06352784248916953</v>
+        <v>0.07433873184801887</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03352401985176416</v>
+        <v>0.03319797534487453</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3725343519.210664</v>
+        <v>3951496714.923888</v>
       </c>
       <c r="F22" t="n">
-        <v>0.12909945887995</v>
+        <v>0.1310183658622234</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05434281837595774</v>
+        <v>0.05655359132037355</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1029899277.71428</v>
+        <v>1210217721.76016</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1239087504764454</v>
+        <v>0.1670352402635067</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03390506176965551</v>
+        <v>0.04379379259259214</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3628891078.062925</v>
+        <v>2862649877.401644</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1388464786574831</v>
+        <v>0.1254562279478203</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02866606738957417</v>
+        <v>0.02970842045462908</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1242931057.462306</v>
+        <v>916030325.4044933</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0772302565550505</v>
+        <v>0.1070487314329267</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0263656652163108</v>
+        <v>0.02002843012174004</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1225365269.899668</v>
+        <v>1343074509.056224</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1070330460469023</v>
+        <v>0.1218195923224311</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03168417518950879</v>
+        <v>0.0256364227822304</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4607740683.010668</v>
+        <v>3538197233.448744</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1088173014922783</v>
+        <v>0.1199898034604909</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01775827701493855</v>
+        <v>0.01840786188807779</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2393783613.184201</v>
+        <v>3899195341.622537</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1058619376742936</v>
+        <v>0.1257980883783609</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04891883945923449</v>
+        <v>0.04804478023287065</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5778151131.90122</v>
+        <v>4841966745.167447</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1017408954835886</v>
+        <v>0.144687075353162</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03051918084351038</v>
+        <v>0.03392862185878433</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1908631160.376151</v>
+        <v>2306670139.465306</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1365768378238493</v>
+        <v>0.1314457176278136</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03174006456367646</v>
+        <v>0.03599680247611793</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>967894993.4978032</v>
+        <v>1136057636.425815</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07670234600626884</v>
+        <v>0.07691023890843514</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04130512670770303</v>
+        <v>0.04467250978874971</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1770339707.920899</v>
+        <v>1244503244.669998</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1174031270417493</v>
+        <v>0.1073905088908275</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03749767007493067</v>
+        <v>0.0290926928474687</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3097766901.61799</v>
+        <v>2321529468.396188</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1581989373292402</v>
+        <v>0.1341543416328806</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05028963082285718</v>
+        <v>0.04985332706706794</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1280923250.646291</v>
+        <v>1443835834.71417</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07607798755908493</v>
+        <v>0.0988476045100276</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0210670630169616</v>
+        <v>0.01787232819155342</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>855363485.4002768</v>
+        <v>1003411941.518199</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08790547666844595</v>
+        <v>0.1025005499286432</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02901744013862197</v>
+        <v>0.03433216947637108</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2111240986.854228</v>
+        <v>2227390510.401414</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1168109545155477</v>
+        <v>0.1734260542596288</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02330417699071091</v>
+        <v>0.01858326032652789</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2535282887.980305</v>
+        <v>2139489163.955568</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07176564758143943</v>
+        <v>0.09421813520778129</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03402138294502156</v>
+        <v>0.03376745722081886</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2038497558.695744</v>
+        <v>1336265676.254692</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1174488083893593</v>
+        <v>0.07426013438274381</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0257896957614637</v>
+        <v>0.03695972337825153</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1529679272.759184</v>
+        <v>1795183430.430272</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1371279898717103</v>
+        <v>0.1408390218645507</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02414770405008589</v>
+        <v>0.02678286855084585</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1306062469.888587</v>
+        <v>1468928770.371971</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1402301777266545</v>
+        <v>0.1626421701522866</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05582298563729134</v>
+        <v>0.05249381108802176</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1954761816.100054</v>
+        <v>2570482966.907739</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1438146811326368</v>
+        <v>0.140084476527189</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03063427324970617</v>
+        <v>0.042464561222848</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2953791324.531649</v>
+        <v>2989301464.32077</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0979437040326506</v>
+        <v>0.111767806852419</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03498496236579</v>
+        <v>0.03771692093481392</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2639348390.667066</v>
+        <v>2276211273.070787</v>
       </c>
       <c r="F43" t="n">
-        <v>0.145971327737522</v>
+        <v>0.1237193988980921</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01821252061898559</v>
+        <v>0.0180662219132621</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1533781607.01614</v>
+        <v>1819470222.322532</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0763486617665152</v>
+        <v>0.06755529429138585</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03070428634394539</v>
+        <v>0.0305577087636077</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2285521352.315992</v>
+        <v>2089524308.999922</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1173650533469027</v>
+        <v>0.1409895959467478</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03942661620302272</v>
+        <v>0.04533837025462581</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4555843533.786427</v>
+        <v>3566836986.612804</v>
       </c>
       <c r="F46" t="n">
-        <v>0.150468697806113</v>
+        <v>0.1671409774566473</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04306491704928161</v>
+        <v>0.0418791537469929</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5090717123.079501</v>
+        <v>3772836391.258327</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1523688618023961</v>
+        <v>0.1346418540748939</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05618523184595207</v>
+        <v>0.05035040448174533</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3713822981.879204</v>
+        <v>3091866967.904004</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09376972745467374</v>
+        <v>0.07993097534947712</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03859781004044951</v>
+        <v>0.03566060457132455</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1355005085.402485</v>
+        <v>1413708061.253958</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1564019011968979</v>
+        <v>0.1771204400885329</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0383484826178315</v>
+        <v>0.03071018529243356</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3666710639.659847</v>
+        <v>3028192831.157432</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1770735242083586</v>
+        <v>0.1202254031307938</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04611497912915987</v>
+        <v>0.05304097211372228</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1102510922.545267</v>
+        <v>1309350465.409211</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1299233003669614</v>
+        <v>0.1350230720683557</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04490714649321202</v>
+        <v>0.05135607411745057</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4687681046.631659</v>
+        <v>5163082100.373208</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1279676444131607</v>
+        <v>0.1097348579641137</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05848362365975807</v>
+        <v>0.0507155580638344</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2370674975.144403</v>
+        <v>3266466459.976877</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1354791828557213</v>
+        <v>0.1681754478478206</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03355144737562037</v>
+        <v>0.03047392293036545</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4524247690.919165</v>
+        <v>3841419477.376659</v>
       </c>
       <c r="F54" t="n">
-        <v>0.164566996027493</v>
+        <v>0.1441796046147779</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04599419032498016</v>
+        <v>0.03822526707099087</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3776372410.010503</v>
+        <v>4240732951.462316</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1913573402348977</v>
+        <v>0.1679999107980287</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02217042693739239</v>
+        <v>0.02659091809123525</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1870626096.635966</v>
+        <v>1468863278.878975</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1167058952312249</v>
+        <v>0.1319524917920908</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03855334295817305</v>
+        <v>0.04277962953524567</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4573482571.309476</v>
+        <v>4101876736.600091</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1687767920832541</v>
+        <v>0.1117346634718098</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01836919205394489</v>
+        <v>0.02550135534927409</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1611490307.376268</v>
+        <v>1290644894.410777</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1770476277342914</v>
+        <v>0.1703836582319107</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02908874971799514</v>
+        <v>0.03082667332188006</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3912267134.332779</v>
+        <v>4114081716.213586</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09462164743732995</v>
+        <v>0.1042571195516206</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04823298248078206</v>
+        <v>0.03756379256813691</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3560574701.193767</v>
+        <v>2932423356.144806</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1523193002414954</v>
+        <v>0.1354428734438836</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02290043153515223</v>
+        <v>0.02526212682347566</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3000060320.428235</v>
+        <v>2308067895.843584</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1508824669041527</v>
+        <v>0.1707986969591294</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02341342037129614</v>
+        <v>0.02812454806881117</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1330326724.202775</v>
+        <v>1528313258.096842</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1515584846412925</v>
+        <v>0.1686026254828038</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0309043243541925</v>
+        <v>0.03281160970173775</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5362444503.326581</v>
+        <v>4234933951.97232</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06838521729134228</v>
+        <v>0.0804193251508698</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03449216451735412</v>
+        <v>0.03750016436260616</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4332553622.681721</v>
+        <v>4817697910.964373</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1192289667398173</v>
+        <v>0.1916431515220909</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02744226905170287</v>
+        <v>0.03164782184379573</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5662880871.235642</v>
+        <v>5047300621.74644</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1638897154508967</v>
+        <v>0.1248213923997766</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02867531450732303</v>
+        <v>0.02278179078903965</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4804539324.821102</v>
+        <v>4322378279.680302</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1025445734035216</v>
+        <v>0.1546562301045869</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05032743799388247</v>
+        <v>0.05060462146816003</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3081637182.2462</v>
+        <v>2380074766.349754</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09408064115314521</v>
+        <v>0.07573995053680486</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04179016026866458</v>
+        <v>0.0456210746493599</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3925237796.399189</v>
+        <v>4367687330.362253</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1031894608711858</v>
+        <v>0.1088752229851926</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04891895399319839</v>
+        <v>0.03989790069642673</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1849817682.645317</v>
+        <v>1880558421.178975</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1120404010796542</v>
+        <v>0.1348441134335084</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0480957183054311</v>
+        <v>0.03813762738173859</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2279244358.669969</v>
+        <v>3726550416.360507</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08255404108060747</v>
+        <v>0.06307627766705777</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03194179459076926</v>
+        <v>0.03198201916170369</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4583431656.606318</v>
+        <v>5149979551.912536</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1175538727082464</v>
+        <v>0.150071949081704</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02952173567899214</v>
+        <v>0.02339208121879889</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2074413076.017433</v>
+        <v>2115877685.467359</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1031769440911709</v>
+        <v>0.09944561105567754</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05210200038183879</v>
+        <v>0.03921957595554915</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3193291784.328635</v>
+        <v>3141332321.048422</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08489494032563388</v>
+        <v>0.0752893493907754</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05109089407640919</v>
+        <v>0.04460768561824151</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3323078515.242889</v>
+        <v>3667713405.774319</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1677164439607159</v>
+        <v>0.1327008748317903</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03530335383849117</v>
+        <v>0.0258629144223394</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1877124705.380871</v>
+        <v>2218479214.494809</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1266477518888975</v>
+        <v>0.1245892115378906</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03381515374091518</v>
+        <v>0.03742613673983012</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3754818612.935869</v>
+        <v>3895313974.565019</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1077942382405188</v>
+        <v>0.1231642885881713</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0227074793458053</v>
+        <v>0.03009756326013275</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2305079954.812943</v>
+        <v>2312977233.018702</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1668118565324999</v>
+        <v>0.1199425535900482</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02370885414081319</v>
+        <v>0.01947155836630369</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2938725456.074667</v>
+        <v>3153288249.546225</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1072663809099123</v>
+        <v>0.0853718521193827</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05543000032609741</v>
+        <v>0.05147196586245588</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1301301687.563733</v>
+        <v>1317321345.791856</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1483781572308326</v>
+        <v>0.142080246008663</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02958958223339465</v>
+        <v>0.03188963826968608</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5488074392.693985</v>
+        <v>3681198588.479826</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07172612503386855</v>
+        <v>0.08079714467756109</v>
       </c>
       <c r="G80" t="n">
-        <v>0.028195187844806</v>
+        <v>0.03618430095801869</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3503260346.516851</v>
+        <v>5181870465.54103</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1212112089816584</v>
+        <v>0.1207174763140793</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01999184628318238</v>
+        <v>0.02894715313426989</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3461803501.221314</v>
+        <v>3749020828.635734</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1392376399685993</v>
+        <v>0.168830093751272</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02894768231675488</v>
+        <v>0.0269747389161406</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2007837065.022064</v>
+        <v>2479387732.444253</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1355140001609118</v>
+        <v>0.1128574711116083</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03165541941680543</v>
+        <v>0.03365953009088365</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2503420153.37525</v>
+        <v>2169778627.599606</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08928033794696624</v>
+        <v>0.07449697230064677</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04145679688040491</v>
+        <v>0.04873012072721378</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2352989611.145043</v>
+        <v>2424549690.731555</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1673302951835705</v>
+        <v>0.1388987624136281</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05666005409142037</v>
+        <v>0.03850654427588338</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1918176430.666459</v>
+        <v>2338191758.647996</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1690962496643811</v>
+        <v>0.1277977372767881</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02279755410315583</v>
+        <v>0.02655243350402851</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1302345022.657616</v>
+        <v>1447577250.099735</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1170684775408431</v>
+        <v>0.179293544356508</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04140958397674858</v>
+        <v>0.0399046751924745</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3290610522.176219</v>
+        <v>2752461296.235156</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1086662252217</v>
+        <v>0.1113943451103658</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02900148092300848</v>
+        <v>0.0373445966976481</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3422066706.86548</v>
+        <v>2502261919.91861</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1404257965495334</v>
+        <v>0.1316009450957509</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03707808246803911</v>
+        <v>0.04042716244094403</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1600714408.205568</v>
+        <v>1829880785.48335</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08653573192802259</v>
+        <v>0.08845942127052198</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03936705095261753</v>
+        <v>0.0437420761387176</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1687190521.826094</v>
+        <v>1684584345.129879</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1431904037584312</v>
+        <v>0.1621578270684545</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05780967066525628</v>
+        <v>0.05072822815901854</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2530601313.777056</v>
+        <v>2387455307.879624</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08494057361045533</v>
+        <v>0.09877531522095437</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03664423891211735</v>
+        <v>0.03515346603844661</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4971587244.902519</v>
+        <v>3696031999.883598</v>
       </c>
       <c r="F93" t="n">
-        <v>0.110608590709738</v>
+        <v>0.1273846082926635</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03367806014839334</v>
+        <v>0.04091379541678401</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2057054856.644843</v>
+        <v>2059173630.348176</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1334362982755321</v>
+        <v>0.14572932903837</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03255134005705073</v>
+        <v>0.0304915503918361</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3282405612.444398</v>
+        <v>2058568739.612869</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1367118951927192</v>
+        <v>0.09246348916394855</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03619963894597955</v>
+        <v>0.0356243383909246</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2030675968.480398</v>
+        <v>1592407603.755448</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1116107924248071</v>
+        <v>0.1349518762507147</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0308423216761963</v>
+        <v>0.0443206460363894</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4012189117.104515</v>
+        <v>4156998068.4747</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1277459257794553</v>
+        <v>0.1239071418450794</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02378144720557528</v>
+        <v>0.02023061476016784</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3031508306.045952</v>
+        <v>2625155644.901915</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08369767434494882</v>
+        <v>0.104883537828816</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0217302454755173</v>
+        <v>0.03281897076341479</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2225286588.497089</v>
+        <v>2670588194.122396</v>
       </c>
       <c r="F99" t="n">
-        <v>0.146103825419316</v>
+        <v>0.09054531922996736</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03557042929814055</v>
+        <v>0.02268500941591076</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4429498057.736613</v>
+        <v>3987823523.806809</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1458591149664652</v>
+        <v>0.1182323669420097</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02784800404275287</v>
+        <v>0.02534772367072182</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3195546768.259741</v>
+        <v>2442590432.768881</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1637819230273831</v>
+        <v>0.1711243996539685</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03602070561706659</v>
+        <v>0.05225465660398536</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_348.xlsx
+++ b/output/fit_clients/fit_round_348.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2483964462.740857</v>
+        <v>2182457890.927237</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07965754207124243</v>
+        <v>0.08107457970783666</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0275740321823621</v>
+        <v>0.03885265045064148</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1842309563.317337</v>
+        <v>2558220611.667221</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1820989203659465</v>
+        <v>0.178176131778203</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04129765513748235</v>
+        <v>0.04314547027497168</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3505536803.229918</v>
+        <v>5160134749.607968</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1140348703031834</v>
+        <v>0.1028398160480528</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0338101982829515</v>
+        <v>0.02685445973788811</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>180</v>
+      </c>
+      <c r="J4" t="n">
+        <v>347</v>
+      </c>
+      <c r="K4" t="n">
+        <v>63.01020617009321</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2935523805.336401</v>
+        <v>3920852828.329526</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1064326132351403</v>
+        <v>0.08112568930563364</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03349134364426198</v>
+        <v>0.04501526762457682</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>138</v>
+      </c>
+      <c r="J5" t="n">
+        <v>348</v>
+      </c>
+      <c r="K5" t="n">
+        <v>83.91955727170051</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +645,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2019025462.757602</v>
+        <v>2182511405.95504</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1084082514708624</v>
+        <v>0.1122666576834453</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04153040765249925</v>
+        <v>0.05385557652091123</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3013229036.666783</v>
+        <v>2935406340.357308</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06175885171907722</v>
+        <v>0.06593844409842899</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0406676222934232</v>
+        <v>0.04131310174430858</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +709,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3263227389.546995</v>
+        <v>3441213666.195806</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1906356931184787</v>
+        <v>0.2056117944407886</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0282471805574004</v>
+        <v>0.02052311685118925</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>91</v>
+      </c>
+      <c r="J8" t="n">
+        <v>347</v>
+      </c>
+      <c r="K8" t="n">
+        <v>65.73123511165575</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +752,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1502465002.061827</v>
+        <v>1920979444.619428</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1650438279341124</v>
+        <v>0.1278654695171353</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02328578188670432</v>
+        <v>0.03542591713306305</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +787,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4853480481.488018</v>
+        <v>4569731538.94764</v>
       </c>
       <c r="F10" t="n">
-        <v>0.167030583957508</v>
+        <v>0.1716008477085883</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03290937506430659</v>
+        <v>0.03725647831706463</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>294</v>
+      </c>
+      <c r="J10" t="n">
+        <v>348</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3755288933.095987</v>
+        <v>4104637454.500274</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1706995212732666</v>
+        <v>0.1254228902763264</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03485195286562105</v>
+        <v>0.04711806269681686</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>143</v>
+      </c>
+      <c r="J11" t="n">
+        <v>348</v>
+      </c>
+      <c r="K11" t="n">
+        <v>74.03105563007388</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2196578491.196472</v>
+        <v>2047482335.808782</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1419237762215172</v>
+        <v>0.1654682958854799</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04197344653418592</v>
+        <v>0.05242847312914387</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +888,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4551523591.78897</v>
+        <v>5357003156.973719</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08798690377997861</v>
+        <v>0.0725967683108926</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02578071713437127</v>
+        <v>0.02592537268218327</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>180</v>
+      </c>
+      <c r="J13" t="n">
+        <v>348</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +923,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2755681626.646437</v>
+        <v>3419809550.218282</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1224056381217227</v>
+        <v>0.1253535317305151</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0271087955114048</v>
+        <v>0.02971979438169375</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>72</v>
+      </c>
+      <c r="J14" t="n">
+        <v>347</v>
+      </c>
+      <c r="K14" t="n">
+        <v>67.74871778080812</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +966,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1608036149.23986</v>
+        <v>1422164679.497266</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1090566210624759</v>
+        <v>0.08580491891757756</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03082682929518358</v>
+        <v>0.03530851021499956</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2610154078.037531</v>
+        <v>2482155342.416619</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1064137732458372</v>
+        <v>0.086206165762922</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03312137034373008</v>
+        <v>0.03786775179485537</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1030,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5033783510.081671</v>
+        <v>5060842145.4737</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1336283291017542</v>
+        <v>0.116528169238916</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05250017794726851</v>
+        <v>0.0461611026740654</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>164</v>
+      </c>
+      <c r="J17" t="n">
+        <v>348</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1065,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4020330123.399908</v>
+        <v>3814110813.442901</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1746250578027616</v>
+        <v>0.1188955863644095</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02283730341014062</v>
+        <v>0.02920053087671167</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>85</v>
+      </c>
+      <c r="J18" t="n">
+        <v>348</v>
+      </c>
+      <c r="K18" t="n">
+        <v>81.17461804744237</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>994938488.108144</v>
+        <v>1266899225.874504</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1179025490410575</v>
+        <v>0.1711116819512581</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02263673354400151</v>
+        <v>0.02548555558396436</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1143,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2603907965.79508</v>
+        <v>2068883514.628667</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1459088228032128</v>
+        <v>0.1035225621531588</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02576508227542045</v>
+        <v>0.02950806413312294</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2408956371.347894</v>
+        <v>1816824381.165524</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07433873184801887</v>
+        <v>0.09804024602068789</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03319797534487453</v>
+        <v>0.03022224417559152</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1207,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3951496714.923888</v>
+        <v>2818105307.593558</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1310183658622234</v>
+        <v>0.1331216541646404</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05655359132037355</v>
+        <v>0.05180919039191449</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>94</v>
+      </c>
+      <c r="J22" t="n">
+        <v>347</v>
+      </c>
+      <c r="K22" t="n">
+        <v>41.16599801039374</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1244,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1210217721.76016</v>
+        <v>1293618704.971988</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1670352402635067</v>
+        <v>0.1212504084550238</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04379379259259214</v>
+        <v>0.04926786517779165</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1285,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2862649877.401644</v>
+        <v>3871683425.644753</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1254562279478203</v>
+        <v>0.1174102808613664</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02970842045462908</v>
+        <v>0.02581101886789335</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>103</v>
+      </c>
+      <c r="J24" t="n">
+        <v>348</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>916030325.4044933</v>
+        <v>1107307010.402917</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1070487314329267</v>
+        <v>0.0961618000165454</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02002843012174004</v>
+        <v>0.0227928084322461</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1343074509.056224</v>
+        <v>1292444047.923973</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1218195923224311</v>
+        <v>0.08034665431957094</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0256364227822304</v>
+        <v>0.03171933844157786</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1384,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3538197233.448744</v>
+        <v>3316224671.85043</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1199898034604909</v>
+        <v>0.1400560601168309</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01840786188807779</v>
+        <v>0.02507142546992013</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>145</v>
+      </c>
+      <c r="J27" t="n">
+        <v>347</v>
+      </c>
+      <c r="K27" t="n">
+        <v>49.2678551637591</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1421,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3899195341.622537</v>
+        <v>3454257526.674622</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1257980883783609</v>
+        <v>0.09807781225353882</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04804478023287065</v>
+        <v>0.04915876815703615</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>78</v>
+      </c>
+      <c r="J28" t="n">
+        <v>345</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1456,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4841966745.167447</v>
+        <v>5080408532.006559</v>
       </c>
       <c r="F29" t="n">
-        <v>0.144687075353162</v>
+        <v>0.1338831388322858</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03392862185878433</v>
+        <v>0.03046290139332671</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>312</v>
+      </c>
+      <c r="J29" t="n">
+        <v>347</v>
+      </c>
+      <c r="K29" t="n">
+        <v>64.15178413671315</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1493,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2306670139.465306</v>
+        <v>2320222302.688171</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1314457176278136</v>
+        <v>0.0960669841163917</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03599680247611793</v>
+        <v>0.02684898044403987</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1528,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1136057636.425815</v>
+        <v>1069741783.310742</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07691023890843514</v>
+        <v>0.08946378385972691</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04467250978874971</v>
+        <v>0.03886007313715975</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1563,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1244503244.669998</v>
+        <v>1523331110.956038</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1073905088908275</v>
+        <v>0.08215876575950914</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0290926928474687</v>
+        <v>0.03414531697677375</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1598,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2321529468.396188</v>
+        <v>2031031526.454545</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1341543416328806</v>
+        <v>0.1526438304998652</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04985332706706794</v>
+        <v>0.04485988334146568</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1633,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1443835834.71417</v>
+        <v>1262370432.159048</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0988476045100276</v>
+        <v>0.1139259697474686</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01787232819155342</v>
+        <v>0.02129239983390846</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1668,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1003411941.518199</v>
+        <v>1183632125.604168</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1025005499286432</v>
+        <v>0.07782808962757508</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03433216947637108</v>
+        <v>0.03329603810300948</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1703,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2227390510.401414</v>
+        <v>1967390225.832157</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1734260542596288</v>
+        <v>0.1106452062839192</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01858326032652789</v>
+        <v>0.02258257675341007</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1738,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2139489163.955568</v>
+        <v>1791865105.762139</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09421813520778129</v>
+        <v>0.1041558332196966</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03376745722081886</v>
+        <v>0.03504175645100138</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1773,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1336265676.254692</v>
+        <v>2185478417.820487</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07426013438274381</v>
+        <v>0.08099869606554568</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03695972337825153</v>
+        <v>0.03728723901180972</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1808,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1795183430.430272</v>
+        <v>1585116182.210301</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1408390218645507</v>
+        <v>0.1323503873927402</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02678286855084585</v>
+        <v>0.03198532713212235</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1843,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1468928770.371971</v>
+        <v>1316772882.494268</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1626421701522866</v>
+        <v>0.1180952779580604</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05249381108802176</v>
+        <v>0.05700381018710131</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1878,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2570482966.907739</v>
+        <v>2663255416.340198</v>
       </c>
       <c r="F41" t="n">
-        <v>0.140084476527189</v>
+        <v>0.1119359391821502</v>
       </c>
       <c r="G41" t="n">
-        <v>0.042464561222848</v>
+        <v>0.03514522165809578</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1913,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2989301464.32077</v>
+        <v>4353707143.009536</v>
       </c>
       <c r="F42" t="n">
-        <v>0.111767806852419</v>
+        <v>0.1168192478921732</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03771692093481392</v>
+        <v>0.03299034049936759</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>151</v>
+      </c>
+      <c r="J42" t="n">
+        <v>348</v>
+      </c>
+      <c r="K42" t="n">
+        <v>76.16401214307589</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1956,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2276211273.070787</v>
+        <v>2141164438.321676</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1237193988980921</v>
+        <v>0.164680677313985</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0180662219132621</v>
+        <v>0.01969254219204768</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1985,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1819470222.322532</v>
+        <v>2294852925.281461</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06755529429138585</v>
+        <v>0.08822855013163118</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0305577087636077</v>
+        <v>0.02322112095440946</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2020,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2089524308.999922</v>
+        <v>1861159122.746517</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1409895959467478</v>
+        <v>0.1511921808941558</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04533837025462581</v>
+        <v>0.04793233617414844</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2055,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3566836986.612804</v>
+        <v>5459262689.151175</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1671409774566473</v>
+        <v>0.163037700064101</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0418791537469929</v>
+        <v>0.05076149766999868</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>209</v>
+      </c>
+      <c r="J46" t="n">
+        <v>348</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2090,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3772836391.258327</v>
+        <v>4972519742.401374</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1346418540748939</v>
+        <v>0.1747490097921875</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05035040448174533</v>
+        <v>0.05707168029533581</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>155</v>
+      </c>
+      <c r="J47" t="n">
+        <v>348</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2125,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3091866967.904004</v>
+        <v>3488319597.65159</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07993097534947712</v>
+        <v>0.06822415714999412</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03566060457132455</v>
+        <v>0.02407005852334473</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>174</v>
+      </c>
+      <c r="J48" t="n">
+        <v>347</v>
+      </c>
+      <c r="K48" t="n">
+        <v>60.74564136145878</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2162,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1413708061.253958</v>
+        <v>1506967188.014071</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1771204400885329</v>
+        <v>0.1286350714614915</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03071018529243356</v>
+        <v>0.04311789388798392</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2197,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3028192831.157432</v>
+        <v>3523419951.394247</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1202254031307938</v>
+        <v>0.1753789756136925</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05304097211372228</v>
+        <v>0.04102013330903475</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>115</v>
+      </c>
+      <c r="J50" t="n">
+        <v>347</v>
+      </c>
+      <c r="K50" t="n">
+        <v>63.16842822218725</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2234,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1309350465.409211</v>
+        <v>1441280161.645779</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1350230720683557</v>
+        <v>0.1665939174729121</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05135607411745057</v>
+        <v>0.05378341692949293</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2269,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5163082100.373208</v>
+        <v>4493107434.327162</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1097348579641137</v>
+        <v>0.1159093071411707</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0507155580638344</v>
+        <v>0.05792923033320971</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>208</v>
+      </c>
+      <c r="J52" t="n">
+        <v>347</v>
+      </c>
+      <c r="K52" t="n">
+        <v>61.23957459359838</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2306,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3266466459.976877</v>
+        <v>2505235865.123124</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1681754478478206</v>
+        <v>0.1904762496483991</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03047392293036545</v>
+        <v>0.02867072327962244</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>51</v>
+      </c>
+      <c r="J53" t="n">
+        <v>345</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2341,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3841419477.376659</v>
+        <v>4028531736.281314</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1441796046147779</v>
+        <v>0.1397464307422538</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03822526707099087</v>
+        <v>0.03341921855802733</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>183</v>
+      </c>
+      <c r="J54" t="n">
+        <v>347</v>
+      </c>
+      <c r="K54" t="n">
+        <v>67.13210252006996</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2378,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4240732951.462316</v>
+        <v>4766678574.194529</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1679999107980287</v>
+        <v>0.1462528703132522</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02659091809123525</v>
+        <v>0.02651170557821792</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>166</v>
+      </c>
+      <c r="J55" t="n">
+        <v>348</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2419,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1468863278.878975</v>
+        <v>1772019833.936047</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1319524917920908</v>
+        <v>0.141490794564051</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04277962953524567</v>
+        <v>0.05623206838369617</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2448,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4101876736.600091</v>
+        <v>3506835742.33497</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1117346634718098</v>
+        <v>0.1762095764464587</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02550135534927409</v>
+        <v>0.01756752413413798</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>142</v>
+      </c>
+      <c r="J57" t="n">
+        <v>345</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2483,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1290644894.410777</v>
+        <v>1361318507.430066</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1703836582319107</v>
+        <v>0.1509315987064259</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03082667332188006</v>
+        <v>0.02691332181719219</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2518,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4114081716.213586</v>
+        <v>5206128975.882318</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1042571195516206</v>
+        <v>0.08906156354969468</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03756379256813691</v>
+        <v>0.03216321379576172</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>168</v>
+      </c>
+      <c r="J59" t="n">
+        <v>347</v>
+      </c>
+      <c r="K59" t="n">
+        <v>62.78090326406286</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2561,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2932423356.144806</v>
+        <v>3283073485.280327</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1354428734438836</v>
+        <v>0.184171895391523</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02526212682347566</v>
+        <v>0.03249803744014686</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>61</v>
+      </c>
+      <c r="J60" t="n">
+        <v>344</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2590,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2308067895.843584</v>
+        <v>2617022038.382932</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1707986969591294</v>
+        <v>0.1382540396125223</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02812454806881117</v>
+        <v>0.02870524958980339</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2625,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1528313258.096842</v>
+        <v>2020571380.986107</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1686026254828038</v>
+        <v>0.1476999533676905</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03281160970173775</v>
+        <v>0.03031502990064914</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2660,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4234933951.97232</v>
+        <v>5526985330.431936</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0804193251508698</v>
+        <v>0.07783278852651784</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03750016436260616</v>
+        <v>0.04723650757516858</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>171</v>
+      </c>
+      <c r="J63" t="n">
+        <v>347</v>
+      </c>
+      <c r="K63" t="n">
+        <v>64.01248766117379</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2697,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4817697910.964373</v>
+        <v>3538110767.965252</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1916431515220909</v>
+        <v>0.1320734958588842</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03164782184379573</v>
+        <v>0.02238067826957561</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>172</v>
+      </c>
+      <c r="J64" t="n">
+        <v>346</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2732,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5047300621.74644</v>
+        <v>3752951339.598504</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1248213923997766</v>
+        <v>0.1382902806708218</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02278179078903965</v>
+        <v>0.02712944565135828</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>268</v>
+      </c>
+      <c r="J65" t="n">
+        <v>348</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2767,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4322378279.680302</v>
+        <v>5537199289.444403</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1546562301045869</v>
+        <v>0.1052549598941407</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05060462146816003</v>
+        <v>0.04738245588699606</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>172</v>
+      </c>
+      <c r="J66" t="n">
+        <v>347</v>
+      </c>
+      <c r="K66" t="n">
+        <v>60.0883180040783</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2810,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2380074766.349754</v>
+        <v>2407497786.528913</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07573995053680486</v>
+        <v>0.09667573600981577</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0456210746493599</v>
+        <v>0.04676443435028973</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2839,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4367687330.362253</v>
+        <v>5689415240.222467</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1088752229851926</v>
+        <v>0.1052354907506127</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03989790069642673</v>
+        <v>0.04645689793872217</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>189</v>
+      </c>
+      <c r="J68" t="n">
+        <v>348</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2874,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1880558421.178975</v>
+        <v>2410044499.073057</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1348441134335084</v>
+        <v>0.1246196629892959</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03813762738173859</v>
+        <v>0.05863367364279959</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2909,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3726550416.360507</v>
+        <v>3095938593.259203</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06307627766705777</v>
+        <v>0.08669702102427952</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03198201916170369</v>
+        <v>0.03171888832940351</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>50</v>
+      </c>
+      <c r="J70" t="n">
+        <v>332</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2944,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5149979551.912536</v>
+        <v>4597553509.842566</v>
       </c>
       <c r="F71" t="n">
-        <v>0.150071949081704</v>
+        <v>0.1317483981169385</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02339208121879889</v>
+        <v>0.02559145652235693</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>254</v>
+      </c>
+      <c r="J71" t="n">
+        <v>348</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2115877685.467359</v>
+        <v>1729230480.142012</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09944561105567754</v>
+        <v>0.07689190784340597</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03921957595554915</v>
+        <v>0.04260745520577743</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3141332321.048422</v>
+        <v>2795304339.410799</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0752893493907754</v>
+        <v>0.0731077704625902</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04460768561824151</v>
+        <v>0.03442537461907246</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3667713405.774319</v>
+        <v>3640618981.570897</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1327008748317903</v>
+        <v>0.152247515841412</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0258629144223394</v>
+        <v>0.02713975511061842</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>94</v>
+      </c>
+      <c r="J74" t="n">
+        <v>348</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2218479214.494809</v>
+        <v>1705402169.998992</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1245892115378906</v>
+        <v>0.1615853959180234</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03742613673983012</v>
+        <v>0.03128646623234605</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3895313974.565019</v>
+        <v>3997551204.990943</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1231642885881713</v>
+        <v>0.1128065892752759</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03009756326013275</v>
+        <v>0.02748094297227512</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>164</v>
+      </c>
+      <c r="J76" t="n">
+        <v>348</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3160,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2312977233.018702</v>
+        <v>1403498895.419069</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1199425535900482</v>
+        <v>0.1383176316713705</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01947155836630369</v>
+        <v>0.02610127389606075</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3153288249.546225</v>
+        <v>4561920242.778263</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0853718521193827</v>
+        <v>0.1080107111698905</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05147196586245588</v>
+        <v>0.04435861104989814</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>173</v>
+      </c>
+      <c r="J78" t="n">
+        <v>348</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1317321345.791856</v>
+        <v>1544247847.945055</v>
       </c>
       <c r="F79" t="n">
-        <v>0.142080246008663</v>
+        <v>0.1335934700858196</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03188963826968608</v>
+        <v>0.02639582628198049</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3681198588.479826</v>
+        <v>3454647525.942671</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08079714467756109</v>
+        <v>0.07419353796839061</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03618430095801869</v>
+        <v>0.03399673393969914</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>170</v>
+      </c>
+      <c r="J80" t="n">
+        <v>346</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3300,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5181870465.54103</v>
+        <v>3372559835.982121</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1207174763140793</v>
+        <v>0.1257835963830744</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02894715313426989</v>
+        <v>0.02820941162545846</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>161</v>
+      </c>
+      <c r="J81" t="n">
+        <v>347</v>
+      </c>
+      <c r="K81" t="n">
+        <v>46.59387790900938</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3749020828.635734</v>
+        <v>4485701130.975481</v>
       </c>
       <c r="F82" t="n">
-        <v>0.168830093751272</v>
+        <v>0.1509767364803221</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0269747389161406</v>
+        <v>0.02475343255885605</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>247</v>
+      </c>
+      <c r="J82" t="n">
+        <v>348</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2479387732.444253</v>
+        <v>2259664362.839205</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1128574711116083</v>
+        <v>0.1121299506214713</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03365953009088365</v>
+        <v>0.02761151799352593</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2169778627.599606</v>
+        <v>1736495049.567253</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07449697230064677</v>
+        <v>0.08981125928242585</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04873012072721378</v>
+        <v>0.03214402673721994</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2424549690.731555</v>
+        <v>2297800345.064579</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1388987624136281</v>
+        <v>0.1465336574246839</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03850654427588338</v>
+        <v>0.03839757328213009</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>46</v>
+      </c>
+      <c r="J85" t="n">
+        <v>343</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2338191758.647996</v>
+        <v>2271512373.444294</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1277977372767881</v>
+        <v>0.122335646679546</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02655243350402851</v>
+        <v>0.01777364840769768</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1447577250.099735</v>
+        <v>1478003430.581231</v>
       </c>
       <c r="F87" t="n">
-        <v>0.179293544356508</v>
+        <v>0.1695978410416416</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0399046751924745</v>
+        <v>0.04072162800200716</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2752461296.235156</v>
+        <v>3179432167.933615</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1113943451103658</v>
+        <v>0.151828137971332</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0373445966976481</v>
+        <v>0.02565739269547241</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2502261919.91861</v>
+        <v>3416676341.665101</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1316009450957509</v>
+        <v>0.1389100404034736</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04042716244094403</v>
+        <v>0.03632081987805458</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1829880785.48335</v>
+        <v>1911738239.832198</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08845942127052198</v>
+        <v>0.1178731545374553</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0437420761387176</v>
+        <v>0.05046395831608543</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1684584345.129879</v>
+        <v>1624508934.351091</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1621578270684545</v>
+        <v>0.1954787003710036</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05072822815901854</v>
+        <v>0.05142751930741293</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2387455307.879624</v>
+        <v>2145978588.481704</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09877531522095437</v>
+        <v>0.08020386823787359</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03515346603844661</v>
+        <v>0.03027027787408245</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3696031999.883598</v>
+        <v>3991875207.637578</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1273846082926635</v>
+        <v>0.1166488933737688</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04091379541678401</v>
+        <v>0.04667635505339912</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>160</v>
+      </c>
+      <c r="J93" t="n">
+        <v>348</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2059173630.348176</v>
+        <v>2414370716.105918</v>
       </c>
       <c r="F94" t="n">
-        <v>0.14572932903837</v>
+        <v>0.1669446898447275</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0304915503918361</v>
+        <v>0.03869877440314518</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2058568739.612869</v>
+        <v>2880653578.523129</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09246348916394855</v>
+        <v>0.1384953056191359</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0356243383909246</v>
+        <v>0.04713806211601867</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1592407603.755448</v>
+        <v>1988862916.972193</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1349518762507147</v>
+        <v>0.1029680820309252</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0443206460363894</v>
+        <v>0.04609742034605183</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4156998068.4747</v>
+        <v>3651904646.928293</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1239071418450794</v>
+        <v>0.1712333221440027</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02023061476016784</v>
+        <v>0.02787001552713827</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>179</v>
+      </c>
+      <c r="J97" t="n">
+        <v>347</v>
+      </c>
+      <c r="K97" t="n">
+        <v>61.30165544008454</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2625155644.901915</v>
+        <v>2574287738.17501</v>
       </c>
       <c r="F98" t="n">
-        <v>0.104883537828816</v>
+        <v>0.1141487280436394</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03281897076341479</v>
+        <v>0.0271684763366381</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>87</v>
+      </c>
+      <c r="J98" t="n">
+        <v>345</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,16 +3934,25 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2670588194.122396</v>
+        <v>3303804212.60661</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09054531922996736</v>
+        <v>0.138049209137996</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02268500941591076</v>
+        <v>0.03336192287906885</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>6</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="n">
+        <v>75.87011702336632</v>
       </c>
     </row>
     <row r="100">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3987823523.806809</v>
+        <v>3453525388.58982</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1182323669420097</v>
+        <v>0.1234812687288163</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02534772367072182</v>
+        <v>0.02785371772675077</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>157</v>
+      </c>
+      <c r="J100" t="n">
+        <v>345</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2442590432.768881</v>
+        <v>3273715349.52963</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1711243996539685</v>
+        <v>0.1678777395143528</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05225465660398536</v>
+        <v>0.05866890041710644</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>32</v>
+      </c>
+      <c r="J101" t="n">
+        <v>341</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
